--- a/_gen_outputs/xacml/xacml3_3.xml.xlsx
+++ b/_gen_outputs/xacml/xacml3_3.xml.xlsx
@@ -453,18 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;PolicySet xmlns="urn:oasis:names:tc:xacml:3.0:core:schema:wd-17" PolicyCombiningAlgId="urn:oasis:names:tc:xacml:3.0:policy-combining-algorithm:permit-overrides" PolicySetId="sli-mli-interface" Version="1.0"&gt;
-    &lt;Target&gt;
-        &lt;AnyOf&gt;
-            &lt;AllOf&gt;
-                &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                    &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;VIO&lt;/AttributeValue&gt;
-                    &lt;AttributeDesignator AttributeId="http://authz-interop.org/AAA/xacml/subject/subject-role" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="true"/&gt;
-                &lt;/Match&gt;
-            &lt;/AllOf&gt;
-        &lt;/AnyOf&gt;
-    &lt;/Target&gt;
-    &lt;Policy PolicyId="mli-interface" RuleCombiningAlgId="urn:oasis:names:tc:xacml:3.0:rule-combining-algorithm:permit-overrides" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="mli-interface" RuleCombiningAlgId="urn:oasis:names:tc:xacml:3.0:rule-combining-algorithm:permit-overrides" Version="1.0"&gt;
         &lt;Target&gt;
             &lt;AnyOf&gt;
                 &lt;AllOf&gt;
@@ -628,9 +617,9 @@
         <is>
           <t>{
     "datalog_subjects": "Subject(S), has_role(S, 'VIO') :- Subject(S).",
-    "datalog_objects": "Resource(R), has_type(R, 'VI') :- Resource(R). Resource(R), has_type(R, 'VI-Request') :- Resource(R). Resource(R), has_type(R, 'VR-IT') :- Resource(R). Resource(R), has_type(R, 'VLink') :- Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, 'MLI:Request-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:Instantiate-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:Decommission-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:ReplanningVI:Modify-Time') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:Query-VI-Request-Status') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_perform(S, R, 'MLI:Get-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_perform(S, R, 'MLI:Sign-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_perform(S, R, 'MLI:ReplanningVI:Add-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_perform(S, R, 'MLI:ReplanningVI:Modify-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_perform(S, R, 'MLI:ReplanningVI:Delete-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_perform(S, R, 'MLI:ReplanningVI:Add-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink'). can_perform(S, R, 'MLI:ReplanningVI:Modify-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink'). can_perform(S, R, 'MLI:ReplanningVI:Delete-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink')."
+    "datalog_objects": "Resource(R), VI(R) :- Resource(R), has_type(R, 'VI'). Resource(R), VI_Request(R) :- Resource(R), has_type(R, 'VI-Request'). Resource(R), VR_IT(R) :- Resource(R), has_type(R, 'VR-IT'). Resource(R), VLink(R) :- Resource(R), has_type(R, 'VLink').",
+    "datalog_relationships": "has_role(S, 'VIO') :- Subject(S). has_type(R, 'VI') :- VI(R). has_type(R, 'VI-Request') :- VI_Request(R). has_type(R, 'VR-IT') :- VR_IT(R). has_type(R, 'VLink') :- VLink(R).",
+    "datalog_actions": "can_perform(S, 'MLI:Request-VI', R) :- Subject(S), VI(R), has_role(S, 'VIO'). can_perform(S, 'MLI:Instantiate-VI', R) :- Subject(S), VI(R), has_role(S, 'VIO'). can_perform(S, 'MLI:Decommission-VI', R) :- Subject(S), VI(R), has_role(S, 'VIO'). can_perform(S, 'MLI:ReplanningVI:Modify-Time', R) :- Subject(S), VI(R), has_role(S, 'VIO'). can_perform(S, 'MLI:Query-VI-Request-Status', R) :- Subject(S), VI_Request(R), has_role(S, 'VIO'). can_perform(S, 'MLI:Get-SLA-Offer', R) :- Subject(S), VI_Request(R), has_role(S, 'VIO'). can_perform(S, 'MLI:Sign-SLA-Offer', R) :- Subject(S), VI_Request(R), has_role(S, 'VIO'). can_perform(S, 'MLI:ReplanningVI:Add-VR-IT', R) :- Subject(S), VR_IT(R), has_role(S, 'VIO'). can_perform(S, 'MLI:ReplanningVI:Modify-VR-IT', R) :- Subject(S), VR_IT(R), has_role(S, 'VIO'). can_perform(S, 'MLI:ReplanningVI:Delete-VR-IT', R) :- Subject(S), VR_IT(R), has_role(S, 'VIO'). can_perform(S, 'MLI:ReplanningVI:Add-VLink', R) :- Subject(S), VLink(R), has_role(S, 'VIO'). can_perform(S, 'MLI:ReplanningVI:Modify-VLink', R) :- Subject(S), VLink(R), has_role(S, 'VIO'). can_perform(S, 'MLI:ReplanningVI:Delete-VLink', R) :- Subject(S), VLink(R), has_role(S, 'VIO')."
 }</t>
         </is>
       </c>
@@ -809,10 +798,10 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "VIO(S).",
-    "datalog_objects": "VR(R), VR_RP(R), VR_RP_Info(R), VR_State_Info(R), VR_Power_Info(R), VR_Status_Info(R), VR_Info(R).",
+    "datalog_subjects": "Subject(S), Role(S, 'VIO') :- Subject(S).",
+    "datalog_objects": "Resource(R), ResourceType(R, 'VR') :- Resource(R). ResourceType(R, 'VR-RP') :- Resource(R). ResourceType(R, 'VR-RP-Info') :- Resource(R). ResourceType(R, 'VR-State-Info') :- Resource(R). ResourceType(R, 'VR-Power-Info') :- Resource(R). ResourceType(R, 'VR-Status-Info') :- Resource(R). ResourceType(R, 'VR-Info') :- Resource(R).",
     "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, 'SLI:Decommission-VR-IT') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Operate-VR') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Add-VirtualNetworkIf') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Remove-VirtualNetworkIf') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Create-StorageImage') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Remove-StorageImage') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Instantiate-VR-IT') :- VIO(S), VR_RP(R). can_perform(S, R, 'SLI:Get-Available-VR-Pool-IT') :- VIO(S), VR_RP_Info(R). can_perform(S, R, 'SLI:Monitor-VR-Info') :- VIO(S), VR_State_Info(R), VR_Power_Info(R), VR_Status_Info(R). can_perform(S, R, 'SLI:Subscribe-VR-Monitoring') :- VIO(S), VR_Info(R). can_perform(S, R, 'SLI:Unsubscribe-VR-Monitoring') :- VIO(S), VR_Info(R)."
+    "datalog_actions": "can_perform(S, R, 'SLI:Decommission-VR-IT') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR'). can_perform(S, R, 'SLI:Operate-VR') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR'). can_perform(S, R, 'SLI:Add-VirtualNetworkIf') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR'). can_perform(S, R, 'SLI:Remove-VirtualNetworkIf') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR'). can_perform(S, R, 'SLI:Create-StorageImage') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR'). can_perform(S, R, 'SLI:Remove-StorageImage') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR'). can_perform(S, R, 'SLI:Instantiate-VR-IT') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR-RP'). can_perform(S, R, 'SLI:Get-Available-VR-Pool-IT') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR-RP-Info'). can_perform(S, R, 'SLI:Monitor-VR-Info') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR-State-Info'), ResourceType(R, 'VR-Power-Info'), ResourceType(R, 'VR-Status-Info'). can_perform(S, R, 'SLI:Subscribe-VR-Monitoring') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR-Info'). can_perform(S, R, 'SLI:Unsubscribe-VR-Monitoring') :- Subject(S), Resource(R), Role(S, 'VIO'), ResourceType(R, 'VR-Info')."
 }</t>
         </is>
       </c>
@@ -983,10 +972,10 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "VIO(S).",
-    "datalog_objects": "VI(R), VI_Request(R), VR_IT(R), VLink(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, A) :- VIO(S), VI(R), action_in_set(A, [\"MLI:Request-VI\", \"MLI:Instantiate-VI\", \"MLI:Decommission-VI\", \"MLI:ReplanningVI:Modify-Time\"]). can_perform(S, R, A) :- VIO(S), VI_Request(R), action_in_set(A, [\"MLI:Query-VI-Request-Status\", \"MLI:Get-SLA-Offer\", \"MLI:Sign-SLA-Offer\"]). can_perform(S, R, A) :- VIO(S), VR_IT(R), action_in_set(A, [\"MLI:ReplanningVI:Add-VR-IT\", \"MLI:ReplanningVI:Modify-VR-IT\", \"MLI:ReplanningVI:Delete-VR-IT\"]). can_perform(S, R, A) :- VIO(S), VLink(R), action_in_set(A, [\"MLI:ReplanningVI:Add-VLink\", \"MLI:ReplanningVI:Modify-VLink\", \"MLI:ReplanningVI:Delete-VLink\"])."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(S, 'VIO') :- Subject(S).",
+    "datalog_actions": "can_access(S, R, A) :- Subject(S), Resource(R), has_role(S, 'VIO'), resource_type(R, 'VI'), action_in(A, ['MLI:Request-VI', 'MLI:Instantiate-VI', 'MLI:Decommission-VI', 'MLI:ReplanningVI:Modify-Time']).\ncan_access(S, R, A) :- Subject(S), Resource(R), has_role(S, 'VIO'), resource_type(R, 'VI-Request'), action_in(A, ['MLI:Query-VI-Request-Status', 'MLI:Get-SLA-Offer', 'MLI:Sign-SLA-Offer']).\ncan_access(S, R, A) :- Subject(S), Resource(R), has_role(S, 'VIO'), resource_type(R, 'VR-IT'), action_in(A, ['MLI:ReplanningVI:Add-VR-IT', 'MLI:ReplanningVI:Modify-VR-IT', 'MLI:ReplanningVI:Delete-VR-IT']).\ncan_access(S, R, A) :- Subject(S), Resource(R), has_role(S, 'VIO'), resource_type(R, 'VLink'), action_in(A, ['MLI:ReplanningVI:Add-VLink', 'MLI:ReplanningVI:Modify-VLink', 'MLI:ReplanningVI:Delete-VLink'])."
 }</t>
         </is>
       </c>
@@ -1165,10 +1154,10 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), VIO(S) :- Subject(S), has_role(S, 'VIO').",
-    "datalog_objects": "Resource(R), VR(R) :- Resource(R), has_type(R, 'VR'). VR_RP(R) :- Resource(R), has_type(R, 'VR-RP'). VR_RP_Info(R) :- Resource(R), has_type(R, 'VR-RP-Info'). VR_State_Info(R) :- Resource(R), has_type(R, 'VR-State-Info'). VR_Power_Info(R) :- Resource(R), has_type(R, 'VR-Power-Info'). VR_Status_Info(R) :- Resource(R), has_type(R, 'VR-Status-Info'). VR_Info(R) :- Resource(R), has_type(R, 'VR-Info').",
+    "datalog_subjects": "VIO(S).",
+    "datalog_objects": "VR(R), VR_RP(RP), VR_RP_Info(RI), VR_State_Info(SI), VR_Power_Info(PI), VR_Status_Info(STI), VR_Info(VI).",
     "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, 'SLI:Decommission-VR-IT') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Operate-VR') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Add-VirtualNetworkIf') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Remove-VirtualNetworkIf') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Create-StorageImage') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Remove-StorageImage') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Instantiate-VR-IT') :- VIO(S), VR_RP(R). can_perform(S, R, 'SLI:Get-Available-VR-Pool-IT') :- VIO(S), VR_RP_Info(R). can_perform(S, R, 'SLI:Monitor-VR-Info') :- VIO(S), VR_State_Info(R). can_perform(S, R, 'SLI:Monitor-VR-Info') :- VIO(S), VR_Power_Info(R). can_perform(S, R, 'SLI:Monitor-VR-Info') :- VIO(S), VR_Status_Info(R). can_perform(S, R, 'SLI:Subscribe-VR-Monitoring') :- VIO(S), VR_Info(R). can_perform(S, R, 'SLI:Unsubscribe-VR-Monitoring') :- VIO(S), VR_Info(R)."
+    "datalog_actions": "can_perform(S, R, A) :- VIO(S), VR(R), action_in(A, [\"SLI:Decommission-VR-IT\", \"SLI:Operate-VR\", \"SLI:Add-VirtualNetworkIf\", \"SLI:Remove-VirtualNetworkIf\", \"SLI:Create-StorageImage\", \"SLI:Remove-StorageImage\"]). can_perform(S, RP, \"SLI:Instantiate-VR-IT\") :- VIO(S), VR_RP(RP). can_perform(S, RI, \"SLI:Get-Available-VR-Pool-IT\") :- VIO(S), VR_RP_Info(RI). can_perform(S, SI, \"SLI:Monitor-VR-Info\") :- VIO(S), VR_State_Info(SI). can_perform(S, PI, \"SLI:Monitor-VR-Info\") :- VIO(S), VR_Power_Info(PI). can_perform(S, STI, \"SLI:Monitor-VR-Info\") :- VIO(S), VR_Status_Info(STI). can_perform(S, VI, \"SLI:Subscribe-VR-Monitoring\") :- VIO(S), VR_Info(VI). can_perform(S, VI, \"SLI:Unsubscribe-VR-Monitoring\") :- VIO(S), VR_Info(VI)."
 }</t>
         </is>
       </c>
@@ -1339,10 +1328,10 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), VIO(S) :- Subject(S), has_role(S, \"VIO\").",
-    "datalog_objects": "Resource(R), VI(R) :- Resource(R), has_type(R, \"VI\"). VI_Request(R) :- Resource(R), has_type(R, \"VI-Request\"). VR_IT(R) :- Resource(R), has_type(R, \"VR-IT\"). VLink(R) :- Resource(R), has_type(R, \"VLink\").",
+    "datalog_subjects": "Subject(S), has_role(S, 'VIO') :- Subject(S).",
+    "datalog_objects": "Resource(R), has_type(R, 'VI') :- Resource(R). has_type(R, 'VI-Request') :- Resource(R). has_type(R, 'VR-IT') :- Resource(R). has_type(R, 'VLink') :- Resource(R).",
     "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, \"MLI:Request-VI\") :- VIO(S), VI(R). can_perform(S, R, \"MLI:Instantiate-VI\") :- VIO(S), VI(R). can_perform(S, R, \"MLI:Decommission-VI\") :- VIO(S), VI(R). can_perform(S, R, \"MLI:ReplanningVI:Modify-Time\") :- VIO(S), VI(R). can_perform(S, R, \"MLI:Query-VI-Request-Status\") :- VIO(S), VI_Request(R). can_perform(S, R, \"MLI:Get-SLA-Offer\") :- VIO(S), VI_Request(R). can_perform(S, R, \"MLI:Sign-SLA-Offer\") :- VIO(S), VI_Request(R). can_perform(S, R, \"MLI:ReplanningVI:Add-VR-IT\") :- VIO(S), VR_IT(R). can_perform(S, R, \"MLI:ReplanningVI:Modify-VR-IT\") :- VIO(S), VR_IT(R). can_perform(S, R, \"MLI:ReplanningVI:Delete-VR-IT\") :- VIO(S), VR_IT(R). can_perform(S, R, \"MLI:ReplanningVI:Add-VLink\") :- VIO(S), VLink(R). can_perform(S, R, \"MLI:ReplanningVI:Modify-VLink\") :- VIO(S), VLink(R). can_perform(S, R, \"MLI:ReplanningVI:Delete-VLink\") :- VIO(S), VLink(R)."
+    "datalog_actions": "can_perform(S, R, 'MLI:Request-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:Instantiate-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:Decommission-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:ReplanningVI:Modify-Time') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:Query-VI-Request-Status') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_perform(S, R, 'MLI:Get-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_perform(S, R, 'MLI:Sign-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_perform(S, R, 'MLI:ReplanningVI:Add-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_perform(S, R, 'MLI:ReplanningVI:Modify-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_perform(S, R, 'MLI:ReplanningVI:Delete-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_perform(S, R, 'MLI:ReplanningVI:Add-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink'). can_perform(S, R, 'MLI:ReplanningVI:Modify-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink'). can_perform(S, R, 'MLI:ReplanningVI:Delete-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink')."
 }</t>
         </is>
       </c>
@@ -1521,7 +1510,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), VIO(S) :- Subject(S), role(S, 'VIO').",
+    "datalog_subjects": "Subject(S), VIO(S) :- Subject(S), subject_role(S, 'VIO').",
     "datalog_objects": "Resource(R), VR(R) :- Resource(R), resource_type(R, 'VR').\nResource(R), VR_RP(R) :- Resource(R), resource_type(R, 'VR-RP').\nResource(R), VR_RP_Info(R) :- Resource(R), resource_type(R, 'VR-RP-Info').\nResource(R), VR_State_Info(R) :- Resource(R), resource_type(R, 'VR-State-Info').\nResource(R), VR_Power_Info(R) :- Resource(R), resource_type(R, 'VR-Power-Info').\nResource(R), VR_Status_Info(R) :- Resource(R), resource_type(R, 'VR-Status-Info').\nResource(R), VR_Info(R) :- Resource(R), resource_type(R, 'VR-Info').",
     "datalog_relationships": "",
     "datalog_actions": "can_perform(S, R, 'SLI:Decommission-VR-IT') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Operate-VR') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Add-VirtualNetworkIf') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Remove-VirtualNetworkIf') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Create-StorageImage') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Remove-StorageImage') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Instantiate-VR-IT') :- VIO(S), VR_RP(R).\ncan_perform(S, R, 'SLI:Get-Available-VR-Pool-IT') :- VIO(S), VR_RP_Info(R).\ncan_perform(S, R, 'SLI:Monitor-VR-Info') :- VIO(S), VR_State_Info(R), VR_Power_Info(R), VR_Status_Info(R).\ncan_perform(S, R, 'SLI:Subscribe-VR-Monitoring') :- VIO(S), VR_Info(R).\ncan_perform(S, R, 'SLI:Unsubscribe-VR-Monitoring') :- VIO(S), VR_Info(R)."
@@ -1695,10 +1684,10 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), has_role(S, 'VIO').",
-    "datalog_objects": "Resource(R), has_type(R, 'VI'), has_type(R, 'VI-Request'), has_type(R, 'VR-IT'), has_type(R, 'VLink').",
+    "datalog_subjects": "Subject(S), has_role(S, VIO) :- Subject(S).",
+    "datalog_objects": "Resource(R), has_type(R, VI) :- Resource(R). has_type(R, VI_Request) :- Resource(R). has_type(R, VR_IT) :- Resource(R). has_type(R, VLink) :- Resource(R).",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, 'MLI:Request-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_access(S, R, 'MLI:Instantiate-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_access(S, R, 'MLI:Decommission-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_access(S, R, 'MLI:ReplanningVI:Modify-Time') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_access(S, R, 'MLI:Query-VI-Request-Status') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_access(S, R, 'MLI:Get-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_access(S, R, 'MLI:Sign-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_access(S, R, 'MLI:ReplanningVI:Add-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_access(S, R, 'MLI:ReplanningVI:Modify-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_access(S, R, 'MLI:ReplanningVI:Delete-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_access(S, R, 'MLI:ReplanningVI:Add-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink'). can_access(S, R, 'MLI:ReplanningVI:Modify-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink'). can_access(S, R, 'MLI:ReplanningVI:Delete-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink')."
+    "datalog_actions": "can_access(S, R, Action) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VI), Action = 'MLI:Request-VI'; Action = 'MLI:Instantiate-VI'; Action = 'MLI:Decommission-VI'; Action = 'MLI:ReplanningVI:Modify-Time'. can_access(S, R, Action) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VI_Request), Action = 'MLI:Query-VI-Request-Status'; Action = 'MLI:Get-SLA-Offer'; Action = 'MLI:Sign-SLA-Offer'. can_access(S, R, Action) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VR_IT), Action = 'MLI:ReplanningVI:Add-VR-IT'; Action = 'MLI:ReplanningVI:Modify-VR-IT'; Action = 'MLI:ReplanningVI:Delete-VR-IT'. can_access(S, R, Action) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VLink), Action = 'MLI:ReplanningVI:Add-VLink'; Action = 'MLI:ReplanningVI:Modify-VLink'; Action = 'MLI:ReplanningVI:Delete-VLink'."
 }</t>
         </is>
       </c>
@@ -1877,10 +1866,10 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "VIO(S).",
-    "datalog_objects": "VR(R), VR_RP(R), VR_RP_Info(R), VR_State_Info(R), VR_Power_Info(R), VR_Status_Info(R), VR_Info(R).",
+    "datalog_subjects": "Subject(S), VIO(S).",
+    "datalog_objects": "Resource(R), VR(R), VR_RP(R), VR_RP_Info(R), VR_State_Info(R), VR_Power_Info(R), VR_Status_Info(R), VR_Info(R).",
     "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, 'SLI:Decommission-VR-IT') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Operate-VR') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Add-VirtualNetworkIf') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Remove-VirtualNetworkIf') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Create-StorageImage') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Remove-StorageImage') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Instantiate-VR-IT') :- VIO(S), VR_RP(R).\ncan_perform(S, R, 'SLI:Get-Available-VR-Pool-IT') :- VIO(S), VR_RP_Info(R).\ncan_perform(S, R, 'SLI:Monitor-VR-Info') :- VIO(S), VR_State_Info(R), VR_Power_Info(R), VR_Status_Info(R).\ncan_perform(S, R, 'SLI:Subscribe-VR-Monitoring') :- VIO(S), VR_Info(R).\ncan_perform(S, R, 'SLI:Unsubscribe-VR-Monitoring') :- VIO(S), VR_Info(R)."
+    "datalog_actions": "can_perform(S, R, Action) :- Subject(S), VIO(S), Resource(R), Action(Action).\ncan_perform(S, R, 'SLI:Decommission-VR-IT') :- Subject(S), VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Operate-VR') :- Subject(S), VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Add-VirtualNetworkIf') :- Subject(S), VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Remove-VirtualNetworkIf') :- Subject(S), VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Create-StorageImage') :- Subject(S), VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Remove-StorageImage') :- Subject(S), VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Instantiate-VR-IT') :- Subject(S), VIO(S), VR_RP(R).\ncan_perform(S, R, 'SLI:Get-Available-VR-Pool-IT') :- Subject(S), VIO(S), VR_RP_Info(R).\ncan_perform(S, R, 'SLI:Monitor-VR-Info') :- Subject(S), VIO(S), VR_State_Info(R).\ncan_perform(S, R, 'SLI:Monitor-VR-Info') :- Subject(S), VIO(S), VR_Power_Info(R).\ncan_perform(S, R, 'SLI:Monitor-VR-Info') :- Subject(S), VIO(S), VR_Status_Info(R).\ncan_perform(S, R, 'SLI:Subscribe-VR-Monitoring') :- Subject(S), VIO(S), VR_Info(R).\ncan_perform(S, R, 'SLI:Unsubscribe-VR-Monitoring') :- Subject(S), VIO(S), VR_Info(R)."
 }</t>
         </is>
       </c>
@@ -2051,10 +2040,10 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), has_role(S, 'VIO') :- Subject(S).",
-    "datalog_objects": "Resource(R), has_type(R, 'VI') :- Resource(R). Resource(R), has_type(R, 'VI-Request') :- Resource(R). Resource(R), has_type(R, 'VR-IT') :- Resource(R). Resource(R), has_type(R, 'VLink') :- Resource(R).",
+    "datalog_subjects": "Subject(S), has_role(S, VIO) :- Subject(S).",
+    "datalog_objects": "Resource(R), has_type(R, VI) :- Resource(R). has_type(R, VI_Request) :- Resource(R). has_type(R, VR_IT) :- Resource(R). has_type(R, VLink) :- Resource(R).",
     "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, 'MLI:Request-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:Instantiate-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:Decommission-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:ReplanningVI:Modify-Time') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI'). can_perform(S, R, 'MLI:Query-VI-Request-Status') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_perform(S, R, 'MLI:Get-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_perform(S, R, 'MLI:Sign-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VI-Request'). can_perform(S, R, 'MLI:ReplanningVI:Add-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_perform(S, R, 'MLI:ReplanningVI:Modify-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_perform(S, R, 'MLI:ReplanningVI:Delete-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT'). can_perform(S, R, 'MLI:ReplanningVI:Add-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink'). can_perform(S, R, 'MLI:ReplanningVI:Modify-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink'). can_perform(S, R, 'MLI:ReplanningVI:Delete-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VLink')."
+    "datalog_actions": "can_perform(S, R, MLI_Request_VI) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VI). can_perform(S, R, MLI_Instantiate_VI) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VI). can_perform(S, R, MLI_Decommission_VI) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VI). can_perform(S, R, MLI_ReplanningVI_Modify_Time) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VI). can_perform(S, R, MLI_Query_VI_Request_Status) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VI_Request). can_perform(S, R, MLI_Get_SLA_Offer) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VI_Request). can_perform(S, R, MLI_Sign_SLA_Offer) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VI_Request). can_perform(S, R, MLI_ReplanningVI_Add_VR_IT) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VR_IT). can_perform(S, R, MLI_ReplanningVI_Modify_VR_IT) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VR_IT). can_perform(S, R, MLI_ReplanningVI_Delete_VR_IT) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VR_IT). can_perform(S, R, MLI_ReplanningVI_Add_VLink) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VLink). can_perform(S, R, MLI_ReplanningVI_Modify_VLink) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VLink). can_perform(S, R, MLI_ReplanningVI_Delete_VLink) :- Subject(S), Resource(R), has_role(S, VIO), has_type(R, VLink)."
 }</t>
         </is>
       </c>
@@ -2233,10 +2222,10 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), VIO(S).",
-    "datalog_objects": "Resource(R), VR(R), VR_RP(R), VR_RP_Info(R), VR_State_Info(R), VR_Power_Info(R), VR_Status_Info(R), VR_Info(R).",
+    "datalog_subjects": "VIO(S).",
+    "datalog_objects": "VR(R), VR_RP(RP), VR_RP_Info(RI), VR_State_Info(SI), VR_Power_Info(PI), VR_Status_Info(TI), VR_Info(VI).",
     "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, 'SLI:Decommission-VR-IT') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Operate-VR') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Add-VirtualNetworkIf') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Remove-VirtualNetworkIf') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Create-StorageImage') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Remove-StorageImage') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Instantiate-VR-IT') :- VIO(S), VR_RP(R). can_perform(S, R, 'SLI:Get-Available-VR-Pool-IT') :- VIO(S), VR_RP_Info(R). can_perform(S, R, 'SLI:Monitor-VR-Info') :- VIO(S), VR_State_Info(R). can_perform(S, R, 'SLI:Monitor-VR-Info') :- VIO(S), VR_Power_Info(R). can_perform(S, R, 'SLI:Monitor-VR-Info') :- VIO(S), VR_Status_Info(R). can_perform(S, R, 'SLI:Subscribe-VR-Monitoring') :- VIO(S), VR_Info(R). can_perform(S, R, 'SLI:Unsubscribe-VR-Monitoring') :- VIO(S), VR_Info(R)."
+    "datalog_actions": "can_perform(S, R, 'SLI:Decommission-VR-IT') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Operate-VR') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Add-VirtualNetworkIf') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Remove-VirtualNetworkIf') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Create-StorageImage') :- VIO(S), VR(R).\ncan_perform(S, R, 'SLI:Remove-StorageImage') :- VIO(S), VR(R).\ncan_perform(S, RP, 'SLI:Instantiate-VR-IT') :- VIO(S), VR_RP(RP).\ncan_perform(S, RI, 'SLI:Get-Available-VR-Pool-IT') :- VIO(S), VR_RP_Info(RI).\ncan_perform(S, SI, 'SLI:Monitor-VR-Info') :- VIO(S), VR_State_Info(SI).\ncan_perform(S, PI, 'SLI:Monitor-VR-Info') :- VIO(S), VR_Power_Info(PI).\ncan_perform(S, TI, 'SLI:Monitor-VR-Info') :- VIO(S), VR_Status_Info(TI).\ncan_perform(S, VI, 'SLI:Subscribe-VR-Monitoring') :- VIO(S), VR_Info(VI).\ncan_perform(S, VI, 'SLI:Unsubscribe-VR-Monitoring') :- VIO(S), VR_Info(VI)."
 }</t>
         </is>
       </c>
@@ -2407,10 +2396,10 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(S, 'VIO') :- Subject(S).\nhas_resource_type(R, 'VI') :- Resource(R).\nhas_resource_type(R, 'VI-Request') :- Resource(R).\nhas_resource_type(R, 'VR-IT') :- Resource(R).\nhas_resource_type(R, 'VLink') :- Resource(R).",
-    "datalog_actions": "can_perform(S, R, 'MLI:Request-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VI').\ncan_perform(S, R, 'MLI:Instantiate-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VI').\ncan_perform(S, R, 'MLI:Decommission-VI') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VI').\ncan_perform(S, R, 'MLI:ReplanningVI:Modify-Time') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VI').\ncan_perform(S, R, 'MLI:Query-VI-Request-Status') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VI-Request').\ncan_perform(S, R, 'MLI:Get-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VI-Request').\ncan_perform(S, R, 'MLI:Sign-SLA-Offer') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VI-Request').\ncan_perform(S, R, 'MLI:ReplanningVI:Add-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VR-IT').\ncan_perform(S, R, 'MLI:ReplanningVI:Modify-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VR-IT').\ncan_perform(S, R, 'MLI:ReplanningVI:Delete-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VR-IT').\ncan_perform(S, R, 'MLI:ReplanningVI:Add-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VLink').\ncan_perform(S, R, 'MLI:ReplanningVI:Modify-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VLink').\ncan_perform(S, R, 'MLI:ReplanningVI:Delete-VLink') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_resource_type(R, 'VLink')."
+    "datalog_subjects": "VIO(S).",
+    "datalog_objects": "VI(R), VI_Request(R), VR_IT(R), VLink(R).",
+    "datalog_relationships": "",
+    "datalog_actions": "can_perform(S, R, Action) :- VIO(S), VI(R), Action = \"MLI:Request-VI\". can_perform(S, R, Action) :- VIO(S), VI(R), Action = \"MLI:Instantiate-VI\". can_perform(S, R, Action) :- VIO(S), VI(R), Action = \"MLI:Decommission-VI\". can_perform(S, R, Action) :- VIO(S), VI(R), Action = \"MLI:ReplanningVI:Modify-Time\". can_perform(S, R, Action) :- VIO(S), VI_Request(R), Action = \"MLI:Query-VI-Request-Status\". can_perform(S, R, Action) :- VIO(S), VI_Request(R), Action = \"MLI:Get-SLA-Offer\". can_perform(S, R, Action) :- VIO(S), VI_Request(R), Action = \"MLI:Sign-SLA-Offer\". can_perform(S, R, Action) :- VIO(S), VR_IT(R), Action = \"MLI:ReplanningVI:Add-VR-IT\". can_perform(S, R, Action) :- VIO(S), VR_IT(R), Action = \"MLI:ReplanningVI:Modify-VR-IT\". can_perform(S, R, Action) :- VIO(S), VR_IT(R), Action = \"MLI:ReplanningVI:Delete-VR-IT\". can_perform(S, R, Action) :- VIO(S), VLink(R), Action = \"MLI:ReplanningVI:Add-VLink\". can_perform(S, R, Action) :- VIO(S), VLink(R), Action = \"MLI:ReplanningVI:Modify-VLink\". can_perform(S, R, Action) :- VIO(S), VLink(R), Action = \"MLI:ReplanningVI:Delete-VLink\"."
 }</t>
         </is>
       </c>
@@ -2589,10 +2578,10 @@
       <c r="C13" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), VIO(S) :- Subject(S).",
-    "datalog_objects": "Resource(R), VR(R) :- Resource(R). VR_RP(R) :- Resource(R). VR_RP_Info(R) :- Resource(R). VR_State_Info(R) :- Resource(R). VR_Power_Info(R) :- Resource(R). VR_Status_Info(R) :- Resource(R). VR_Info(R) :- Resource(R).",
+    "datalog_subjects": "VIO(S).",
+    "datalog_objects": "VR(R), VR_RP(RP), VR_RP_Info(RI), VR_State_Info(RSI), VR_Power_Info(RPI), VR_Status_Info(RSI2), VR_Info(RI2).",
     "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, A) :- VIO(S), VR(R), (A = 'SLI:Decommission-VR-IT'; A = 'SLI:Operate-VR'; A = 'SLI:Add-VirtualNetworkIf'; A = 'SLI:Remove-VirtualNetworkIf'; A = 'SLI:Create-StorageImage'; A = 'SLI:Remove-StorageImage'). can_perform(S, R, A) :- VIO(S), VR_RP(R), A = 'SLI:Instantiate-VR-IT'. can_perform(S, R, A) :- VIO(S), VR_RP_Info(R), A = 'SLI:Get-Available-VR-Pool-IT'. can_perform(S, R, A) :- VIO(S), (VR_State_Info(R); VR_Power_Info(R); VR_Status_Info(R)), A = 'SLI:Monitor-VR-Info'. can_perform(S, R, A) :- VIO(S), VR_Info(R), (A = 'SLI:Subscribe-VR-Monitoring'; A = 'SLI:Unsubscribe-VR-Monitoring')."
+    "datalog_actions": "can_perform(S, R, A) :- VIO(S), VR(R), member(A, [\"SLI:Decommission-VR-IT\", \"SLI:Operate-VR\", \"SLI:Add-VirtualNetworkIf\", \"SLI:Remove-VirtualNetworkIf\", \"SLI:Create-StorageImage\", \"SLI:Remove-StorageImage\"]). can_perform(S, RP, \"SLI:Instantiate-VR-IT\") :- VIO(S), VR_RP(RP). can_perform(S, RI, \"SLI:Get-Available-VR-Pool-IT\") :- VIO(S), VR_RP_Info(RI). can_perform(S, RSI, \"SLI:Monitor-VR-Info\") :- VIO(S), VR_State_Info(RSI). can_perform(S, RPI, \"SLI:Monitor-VR-Info\") :- VIO(S), VR_Power_Info(RPI). can_perform(S, RSI2, \"SLI:Monitor-VR-Info\") :- VIO(S), VR_Status_Info(RSI2). can_perform(S, RI2, A) :- VIO(S), VR_Info(RI2), member(A, [\"SLI:Subscribe-VR-Monitoring\", \"SLI:Unsubscribe-VR-Monitoring\"])."
 }</t>
         </is>
       </c>
